--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H2">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I2">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J2">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.793066</v>
+        <v>16.414246</v>
       </c>
       <c r="N2">
-        <v>9.586131999999999</v>
+        <v>32.828492</v>
       </c>
       <c r="O2">
-        <v>0.1530897350290489</v>
+        <v>0.2238644939003909</v>
       </c>
       <c r="P2">
-        <v>0.1123398347349798</v>
+        <v>0.1639757704305688</v>
       </c>
       <c r="Q2">
-        <v>3.612421207149</v>
+        <v>5.949655333373999</v>
       </c>
       <c r="R2">
-        <v>14.449684828596</v>
+        <v>23.798621333496</v>
       </c>
       <c r="S2">
-        <v>0.01108529652461961</v>
+        <v>0.00980596348294774</v>
       </c>
       <c r="T2">
-        <v>0.005634211303994226</v>
+        <v>0.004921484915561551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H3">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I3">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J3">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>25.566327</v>
       </c>
       <c r="O3">
-        <v>0.2721947514802995</v>
+        <v>0.1162281604801687</v>
       </c>
       <c r="P3">
-        <v>0.2996116629690111</v>
+        <v>0.1277018197151685</v>
       </c>
       <c r="Q3">
-        <v>6.4229132837385</v>
+        <v>3.089000327121</v>
       </c>
       <c r="R3">
-        <v>38.537479702431</v>
+        <v>18.534001962726</v>
       </c>
       <c r="S3">
-        <v>0.01970974430148249</v>
+        <v>0.005091156161038423</v>
       </c>
       <c r="T3">
-        <v>0.01502650793719644</v>
+        <v>0.003832777109494217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H4">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I4">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J4">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.389131666666667</v>
+        <v>8.334395000000001</v>
       </c>
       <c r="N4">
-        <v>10.167395</v>
+        <v>25.003185</v>
       </c>
       <c r="O4">
-        <v>0.108248304702785</v>
+        <v>0.1136680368163697</v>
       </c>
       <c r="P4">
-        <v>0.1191516530322408</v>
+        <v>0.1248889691184426</v>
       </c>
       <c r="Q4">
-        <v>2.5543088925725</v>
+        <v>3.020959821255</v>
       </c>
       <c r="R4">
-        <v>15.325853355435</v>
+        <v>18.12575892753</v>
       </c>
       <c r="S4">
-        <v>0.007838308399253894</v>
+        <v>0.004979014754772302</v>
       </c>
       <c r="T4">
-        <v>0.005975846341483132</v>
+        <v>0.003748353650191878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H5">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I5">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J5">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.801984</v>
+        <v>3.349162</v>
       </c>
       <c r="N5">
-        <v>7.603968</v>
+        <v>6.698324</v>
       </c>
       <c r="O5">
-        <v>0.1214347399231898</v>
+        <v>0.04567730105424404</v>
       </c>
       <c r="P5">
-        <v>0.08911086436636541</v>
+        <v>0.03345760866790863</v>
       </c>
       <c r="Q5">
-        <v>2.865465994176</v>
+        <v>1.213967400978</v>
       </c>
       <c r="R5">
-        <v>11.461863976704</v>
+        <v>4.855869603912</v>
       </c>
       <c r="S5">
-        <v>0.008793144100636077</v>
+        <v>0.002000808338712373</v>
       </c>
       <c r="T5">
-        <v>0.004469202224714866</v>
+        <v>0.001004179556147261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H6">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I6">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J6">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.237454333333335</v>
+        <v>34.05638833333334</v>
       </c>
       <c r="N6">
-        <v>21.712363</v>
+        <v>102.169165</v>
       </c>
       <c r="O6">
-        <v>0.2311630939725934</v>
+        <v>0.4644755621620905</v>
       </c>
       <c r="P6">
-        <v>0.2544470774161978</v>
+        <v>0.5103270520352536</v>
       </c>
       <c r="Q6">
-        <v>5.454699250856501</v>
+        <v>12.344385022795</v>
       </c>
       <c r="R6">
-        <v>32.72819550513901</v>
+        <v>74.06631013677001</v>
       </c>
       <c r="S6">
-        <v>0.01673862353833499</v>
+        <v>0.02034547918666226</v>
       </c>
       <c r="T6">
-        <v>0.01276135578469251</v>
+        <v>0.01531669515562943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H7">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I7">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J7">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.565121</v>
+        <v>2.645939</v>
       </c>
       <c r="N7">
-        <v>10.695363</v>
+        <v>7.937817</v>
       </c>
       <c r="O7">
-        <v>0.1138693748920833</v>
+        <v>0.03608644558673645</v>
       </c>
       <c r="P7">
-        <v>0.1253389074812049</v>
+        <v>0.03964878003265779</v>
       </c>
       <c r="Q7">
-        <v>2.6869479173565</v>
+        <v>0.9590708633909999</v>
       </c>
       <c r="R7">
-        <v>16.121687504139</v>
+        <v>5.754425180346</v>
       </c>
       <c r="S7">
-        <v>0.008245332618234003</v>
+        <v>0.001580698937502659</v>
       </c>
       <c r="T7">
-        <v>0.006286157452757962</v>
+        <v>0.001189998207288597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.36136</v>
       </c>
       <c r="I8">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J8">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.793066</v>
+        <v>16.414246</v>
       </c>
       <c r="N8">
-        <v>9.586131999999999</v>
+        <v>32.828492</v>
       </c>
       <c r="O8">
-        <v>0.1530897350290489</v>
+        <v>0.2238644939003909</v>
       </c>
       <c r="P8">
-        <v>0.1123398347349798</v>
+        <v>0.1639757704305688</v>
       </c>
       <c r="Q8">
-        <v>0.5773407765866667</v>
+        <v>1.977150644853333</v>
       </c>
       <c r="R8">
-        <v>3.46404465952</v>
+        <v>11.86290386912</v>
       </c>
       <c r="S8">
-        <v>0.001771663196847517</v>
+        <v>0.003258653810576901</v>
       </c>
       <c r="T8">
-        <v>0.001350697943223222</v>
+        <v>0.002453213639079924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.36136</v>
       </c>
       <c r="I9">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J9">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>25.566327</v>
       </c>
       <c r="O9">
-        <v>0.2721947514802995</v>
+        <v>0.1162281604801687</v>
       </c>
       <c r="P9">
-        <v>0.2996116629690111</v>
+        <v>0.1277018197151685</v>
       </c>
       <c r="Q9">
         <v>1.02651643608</v>
@@ -1013,10 +1013,10 @@
         <v>9.23864792472</v>
       </c>
       <c r="S9">
-        <v>0.003150031081321015</v>
+        <v>0.001691859800748795</v>
       </c>
       <c r="T9">
-        <v>0.003602327330217478</v>
+        <v>0.001910525226001162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.36136</v>
       </c>
       <c r="I10">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J10">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.389131666666667</v>
+        <v>8.334395000000001</v>
       </c>
       <c r="N10">
-        <v>10.167395</v>
+        <v>25.003185</v>
       </c>
       <c r="O10">
-        <v>0.108248304702785</v>
+        <v>0.1136680368163697</v>
       </c>
       <c r="P10">
-        <v>0.1191516530322408</v>
+        <v>0.1248889691184426</v>
       </c>
       <c r="Q10">
-        <v>0.4082322063555556</v>
+        <v>1.003905659066667</v>
       </c>
       <c r="R10">
-        <v>3.6740898572</v>
+        <v>9.0351509316</v>
       </c>
       <c r="S10">
-        <v>0.001252726301516361</v>
+        <v>0.001654593700228635</v>
       </c>
       <c r="T10">
-        <v>0.001432598624183151</v>
+        <v>0.001868442646175724</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.36136</v>
       </c>
       <c r="I11">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J11">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.801984</v>
+        <v>3.349162</v>
       </c>
       <c r="N11">
-        <v>7.603968</v>
+        <v>6.698324</v>
       </c>
       <c r="O11">
-        <v>0.1214347399231898</v>
+        <v>0.04567730105424404</v>
       </c>
       <c r="P11">
-        <v>0.08911086436636541</v>
+        <v>0.03345760866790863</v>
       </c>
       <c r="Q11">
-        <v>0.4579616460800001</v>
+        <v>0.4034177267733333</v>
       </c>
       <c r="R11">
-        <v>2.74776987648</v>
+        <v>2.42050636064</v>
       </c>
       <c r="S11">
-        <v>0.001405329099954624</v>
+        <v>0.0006648955738533074</v>
       </c>
       <c r="T11">
-        <v>0.001071408565825632</v>
+        <v>0.0005005535982516771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.36136</v>
       </c>
       <c r="I12">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J12">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.237454333333335</v>
+        <v>34.05638833333334</v>
       </c>
       <c r="N12">
-        <v>21.712363</v>
+        <v>102.169165</v>
       </c>
       <c r="O12">
-        <v>0.2311630939725934</v>
+        <v>0.4644755621620905</v>
       </c>
       <c r="P12">
-        <v>0.2544470774161978</v>
+        <v>0.5103270520352536</v>
       </c>
       <c r="Q12">
-        <v>0.871775499297778</v>
+        <v>4.102205496044445</v>
       </c>
       <c r="R12">
-        <v>7.845979493680002</v>
+        <v>36.91984946440001</v>
       </c>
       <c r="S12">
-        <v>0.002675183584209199</v>
+        <v>0.006761076909466533</v>
       </c>
       <c r="T12">
-        <v>0.003059299000537025</v>
+        <v>0.007634916312068411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.36136</v>
       </c>
       <c r="I13">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J13">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.565121</v>
+        <v>2.645939</v>
       </c>
       <c r="N13">
-        <v>10.695363</v>
+        <v>7.937817</v>
       </c>
       <c r="O13">
-        <v>0.1138693748920833</v>
+        <v>0.03608644558673645</v>
       </c>
       <c r="P13">
-        <v>0.1253389074812049</v>
+        <v>0.03964878003265779</v>
       </c>
       <c r="Q13">
-        <v>0.4294307081866667</v>
+        <v>0.3187121723466667</v>
       </c>
       <c r="R13">
-        <v>3.86487637368</v>
+        <v>2.86840955112</v>
       </c>
       <c r="S13">
-        <v>0.001317777319988545</v>
+        <v>0.0005252875584357658</v>
       </c>
       <c r="T13">
-        <v>0.001506989973236937</v>
+        <v>0.0005931786610521278</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H14">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I14">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J14">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.793066</v>
+        <v>16.414246</v>
       </c>
       <c r="N14">
-        <v>9.586131999999999</v>
+        <v>32.828492</v>
       </c>
       <c r="O14">
-        <v>0.1530897350290489</v>
+        <v>0.2238644939003909</v>
       </c>
       <c r="P14">
-        <v>0.1123398347349798</v>
+        <v>0.1639757704305688</v>
       </c>
       <c r="Q14">
-        <v>16.385005052746</v>
+        <v>49.08959308482</v>
       </c>
       <c r="R14">
-        <v>98.31003031647599</v>
+        <v>294.53755850892</v>
       </c>
       <c r="S14">
-        <v>0.05028002803428017</v>
+        <v>0.08090733499843386</v>
       </c>
       <c r="T14">
-        <v>0.03833298031587057</v>
+        <v>0.06090950105701094</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H15">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I15">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J15">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>25.566327</v>
       </c>
       <c r="O15">
-        <v>0.2721947514802995</v>
+        <v>0.1162281604801687</v>
       </c>
       <c r="P15">
-        <v>0.2996116629690111</v>
+        <v>0.1277018197151685</v>
       </c>
       <c r="Q15">
-        <v>29.132667696429</v>
+        <v>25.48681572303</v>
       </c>
       <c r="R15">
-        <v>262.194009267861</v>
+        <v>229.38134150727</v>
       </c>
       <c r="S15">
-        <v>0.08939828482044507</v>
+        <v>0.04200626259385709</v>
       </c>
       <c r="T15">
-        <v>0.1022345101903573</v>
+        <v>0.04743538696295851</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H16">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I16">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J16">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.389131666666667</v>
+        <v>8.334395000000001</v>
       </c>
       <c r="N16">
-        <v>10.167395</v>
+        <v>25.003185</v>
       </c>
       <c r="O16">
-        <v>0.108248304702785</v>
+        <v>0.1136680368163697</v>
       </c>
       <c r="P16">
-        <v>0.1191516530322408</v>
+        <v>0.1248889691184426</v>
       </c>
       <c r="Q16">
-        <v>11.58568220899833</v>
+        <v>24.92542509465</v>
       </c>
       <c r="R16">
-        <v>104.271139880985</v>
+        <v>224.32882585185</v>
       </c>
       <c r="S16">
-        <v>0.03555253259852185</v>
+        <v>0.04108100294550675</v>
       </c>
       <c r="T16">
-        <v>0.04065733211254351</v>
+        <v>0.04639054158156703</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H17">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I17">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J17">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.801984</v>
+        <v>3.349162</v>
       </c>
       <c r="N17">
-        <v>7.603968</v>
+        <v>6.698324</v>
       </c>
       <c r="O17">
-        <v>0.1214347399231898</v>
+        <v>0.04567730105424404</v>
       </c>
       <c r="P17">
-        <v>0.08911086436636541</v>
+        <v>0.03345760866790863</v>
       </c>
       <c r="Q17">
-        <v>12.997010066304</v>
+        <v>10.01623831854</v>
       </c>
       <c r="R17">
-        <v>77.982060397824</v>
+        <v>60.09742991124</v>
       </c>
       <c r="S17">
-        <v>0.03988341952851988</v>
+        <v>0.01650832891733344</v>
       </c>
       <c r="T17">
-        <v>0.03040671207808423</v>
+        <v>0.01242797179834522</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H18">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I18">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J18">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.237454333333335</v>
+        <v>34.05638833333334</v>
       </c>
       <c r="N18">
-        <v>21.712363</v>
+        <v>102.169165</v>
       </c>
       <c r="O18">
-        <v>0.2311630939725934</v>
+        <v>0.4644755621620905</v>
       </c>
       <c r="P18">
-        <v>0.2544470774161978</v>
+        <v>0.5103270520352536</v>
       </c>
       <c r="Q18">
-        <v>24.74110012686767</v>
+        <v>101.85141889685</v>
       </c>
       <c r="R18">
-        <v>222.669901141809</v>
+        <v>916.6627700716502</v>
       </c>
       <c r="S18">
-        <v>0.07592205214299629</v>
+        <v>0.1678670844656377</v>
       </c>
       <c r="T18">
-        <v>0.08682329676766777</v>
+        <v>0.189563165544169</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H19">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I19">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J19">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.565121</v>
+        <v>2.645939</v>
       </c>
       <c r="N19">
-        <v>10.695363</v>
+        <v>7.937817</v>
       </c>
       <c r="O19">
-        <v>0.1138693748920833</v>
+        <v>0.03608644558673645</v>
       </c>
       <c r="P19">
-        <v>0.1253389074812049</v>
+        <v>0.03964878003265779</v>
       </c>
       <c r="Q19">
-        <v>12.187298401201</v>
+        <v>7.91313038913</v>
       </c>
       <c r="R19">
-        <v>109.685685610809</v>
+        <v>71.21817350217</v>
       </c>
       <c r="S19">
-        <v>0.03739868881955746</v>
+        <v>0.01304207778160636</v>
       </c>
       <c r="T19">
-        <v>0.04276856810964948</v>
+        <v>0.01472770887410422</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H20">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I20">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J20">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.793066</v>
+        <v>16.414246</v>
       </c>
       <c r="N20">
-        <v>9.586131999999999</v>
+        <v>32.828492</v>
       </c>
       <c r="O20">
-        <v>0.1530897350290489</v>
+        <v>0.2238644939003909</v>
       </c>
       <c r="P20">
-        <v>0.1123398347349798</v>
+        <v>0.1639757704305688</v>
       </c>
       <c r="Q20">
-        <v>1.996709813478</v>
+        <v>5.066519655835999</v>
       </c>
       <c r="R20">
-        <v>7.986839253911999</v>
+        <v>20.266078623344</v>
       </c>
       <c r="S20">
-        <v>0.006127225782037267</v>
+        <v>0.008350417620341458</v>
       </c>
       <c r="T20">
-        <v>0.003114222942670796</v>
+        <v>0.004190965470003563</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H21">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I21">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J21">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>25.566327</v>
       </c>
       <c r="O21">
-        <v>0.2721947514802995</v>
+        <v>0.1162281604801687</v>
       </c>
       <c r="P21">
-        <v>0.2996116629690111</v>
+        <v>0.1277018197151685</v>
       </c>
       <c r="Q21">
-        <v>3.550165733547</v>
+        <v>2.630485296594</v>
       </c>
       <c r="R21">
-        <v>21.300994401282</v>
+        <v>15.782911779564</v>
       </c>
       <c r="S21">
-        <v>0.01089425557297392</v>
+        <v>0.004335451604421581</v>
       </c>
       <c r="T21">
-        <v>0.008305669283838761</v>
+        <v>0.003263859748776149</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H22">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I22">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J22">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.389131666666667</v>
+        <v>8.334395000000001</v>
       </c>
       <c r="N22">
-        <v>10.167395</v>
+        <v>25.003185</v>
       </c>
       <c r="O22">
-        <v>0.108248304702785</v>
+        <v>0.1136680368163697</v>
       </c>
       <c r="P22">
-        <v>0.1191516530322408</v>
+        <v>0.1248889691184426</v>
       </c>
       <c r="Q22">
-        <v>1.411854637095</v>
+        <v>2.57254436707</v>
       </c>
       <c r="R22">
-        <v>8.471127822570001</v>
+        <v>15.43526620242</v>
       </c>
       <c r="S22">
-        <v>0.004332503438658875</v>
+        <v>0.004239955881183075</v>
       </c>
       <c r="T22">
-        <v>0.00330305641276339</v>
+        <v>0.003191967665621408</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H23">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I23">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J23">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.801984</v>
+        <v>3.349162</v>
       </c>
       <c r="N23">
-        <v>7.603968</v>
+        <v>6.698324</v>
       </c>
       <c r="O23">
-        <v>0.1214347399231898</v>
+        <v>0.04567730105424404</v>
       </c>
       <c r="P23">
-        <v>0.08911086436636541</v>
+        <v>0.03345760866790863</v>
       </c>
       <c r="Q23">
-        <v>1.583841900672</v>
+        <v>1.033772437892</v>
       </c>
       <c r="R23">
-        <v>6.335367602688</v>
+        <v>4.135089751568</v>
       </c>
       <c r="S23">
-        <v>0.00486027406835065</v>
+        <v>0.001703818827753528</v>
       </c>
       <c r="T23">
-        <v>0.002470282236978854</v>
+        <v>0.000855124402025416</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H24">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I24">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J24">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.237454333333335</v>
+        <v>34.05638833333334</v>
       </c>
       <c r="N24">
-        <v>21.712363</v>
+        <v>102.169165</v>
       </c>
       <c r="O24">
-        <v>0.2311630939725934</v>
+        <v>0.4644755621620905</v>
       </c>
       <c r="P24">
-        <v>0.2544470774161978</v>
+        <v>0.5103270520352536</v>
       </c>
       <c r="Q24">
-        <v>3.015000438543</v>
+        <v>10.51204916129667</v>
       </c>
       <c r="R24">
-        <v>18.090002631258</v>
+        <v>63.07229496778001</v>
       </c>
       <c r="S24">
-        <v>0.009252014636876971</v>
+        <v>0.01732550281163436</v>
       </c>
       <c r="T24">
-        <v>0.007053641551586869</v>
+        <v>0.01304316514490208</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H25">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I25">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J25">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.565121</v>
+        <v>2.645939</v>
       </c>
       <c r="N25">
-        <v>10.695363</v>
+        <v>7.937817</v>
       </c>
       <c r="O25">
-        <v>0.1138693748920833</v>
+        <v>0.03608644558673645</v>
       </c>
       <c r="P25">
-        <v>0.1253389074812049</v>
+        <v>0.03964878003265779</v>
       </c>
       <c r="Q25">
-        <v>1.485168801543</v>
+        <v>0.8167114073739999</v>
       </c>
       <c r="R25">
-        <v>8.911012809258001</v>
+        <v>4.900268444243999</v>
       </c>
       <c r="S25">
-        <v>0.004557479764994365</v>
+        <v>0.001346068265819134</v>
       </c>
       <c r="T25">
-        <v>0.003474576068302873</v>
+        <v>0.001013361105779921</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H26">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I26">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J26">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.793066</v>
+        <v>16.414246</v>
       </c>
       <c r="N26">
-        <v>9.586131999999999</v>
+        <v>32.828492</v>
       </c>
       <c r="O26">
-        <v>0.1530897350290489</v>
+        <v>0.2238644939003909</v>
       </c>
       <c r="P26">
-        <v>0.1123398347349798</v>
+        <v>0.1639757704305688</v>
       </c>
       <c r="Q26">
-        <v>5.280081447816666</v>
+        <v>17.17849329376</v>
       </c>
       <c r="R26">
-        <v>31.6804886869</v>
+        <v>103.07095976256</v>
       </c>
       <c r="S26">
-        <v>0.01620278067445648</v>
+        <v>0.02831284645780409</v>
       </c>
       <c r="T26">
-        <v>0.01235283465301274</v>
+        <v>0.02131477141450758</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H27">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I27">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J27">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>25.566327</v>
       </c>
       <c r="O27">
-        <v>0.2721947514802995</v>
+        <v>0.1162281604801687</v>
       </c>
       <c r="P27">
-        <v>0.2996116629690111</v>
+        <v>0.1277018197151685</v>
       </c>
       <c r="Q27">
-        <v>9.388026291975001</v>
+        <v>8.918898395040001</v>
       </c>
       <c r="R27">
-        <v>84.492236627775</v>
+        <v>80.27008555536001</v>
       </c>
       <c r="S27">
-        <v>0.02880867132036397</v>
+        <v>0.01469974092100669</v>
       </c>
       <c r="T27">
-        <v>0.03294515557639466</v>
+        <v>0.01659961767094124</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H28">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I28">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J28">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.389131666666667</v>
+        <v>8.334395000000001</v>
       </c>
       <c r="N28">
-        <v>10.167395</v>
+        <v>25.003185</v>
       </c>
       <c r="O28">
-        <v>0.108248304702785</v>
+        <v>0.1136680368163697</v>
       </c>
       <c r="P28">
-        <v>0.1191516530322408</v>
+        <v>0.1248889691184426</v>
       </c>
       <c r="Q28">
-        <v>3.733495686763889</v>
+        <v>8.722444431200001</v>
       </c>
       <c r="R28">
-        <v>33.60146118087501</v>
+        <v>78.50199988080001</v>
       </c>
       <c r="S28">
-        <v>0.01145683307341379</v>
+        <v>0.01437595403125371</v>
       </c>
       <c r="T28">
-        <v>0.01310185894444897</v>
+        <v>0.01623398275222769</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H29">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I29">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J29">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.801984</v>
+        <v>3.349162</v>
       </c>
       <c r="N29">
-        <v>7.603968</v>
+        <v>6.698324</v>
       </c>
       <c r="O29">
-        <v>0.1214347399231898</v>
+        <v>0.04567730105424404</v>
       </c>
       <c r="P29">
-        <v>0.08911086436636541</v>
+        <v>0.03345760866790863</v>
       </c>
       <c r="Q29">
-        <v>4.188297257599999</v>
+        <v>3.50509898272</v>
       </c>
       <c r="R29">
-        <v>25.1297835456</v>
+        <v>21.03059389632</v>
       </c>
       <c r="S29">
-        <v>0.01285246497331619</v>
+        <v>0.005776951890955701</v>
       </c>
       <c r="T29">
-        <v>0.009798588149088705</v>
+        <v>0.004349064980514793</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H30">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I30">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J30">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.237454333333335</v>
+        <v>34.05638833333334</v>
       </c>
       <c r="N30">
-        <v>21.712363</v>
+        <v>102.169165</v>
       </c>
       <c r="O30">
-        <v>0.2311630939725934</v>
+        <v>0.4644755621620905</v>
       </c>
       <c r="P30">
-        <v>0.2544470774161978</v>
+        <v>0.5103270520352536</v>
       </c>
       <c r="Q30">
-        <v>7.972840005719446</v>
+        <v>35.64205377413334</v>
       </c>
       <c r="R30">
-        <v>71.75556005147502</v>
+        <v>320.7784839672001</v>
       </c>
       <c r="S30">
-        <v>0.02446594417944478</v>
+        <v>0.05874368483261536</v>
       </c>
       <c r="T30">
-        <v>0.02797887928782869</v>
+        <v>0.06633604728435619</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H31">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I31">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J31">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.565121</v>
+        <v>2.645939</v>
       </c>
       <c r="N31">
-        <v>10.695363</v>
+        <v>7.937817</v>
       </c>
       <c r="O31">
-        <v>0.1138693748920833</v>
+        <v>0.03608644558673645</v>
       </c>
       <c r="P31">
-        <v>0.1253389074812049</v>
+        <v>0.03964878003265779</v>
       </c>
       <c r="Q31">
-        <v>3.927367002941667</v>
+        <v>2.76913391984</v>
       </c>
       <c r="R31">
-        <v>35.34630302647501</v>
+        <v>24.92220527856</v>
       </c>
       <c r="S31">
-        <v>0.01205175844457367</v>
+        <v>0.004563966242720847</v>
       </c>
       <c r="T31">
-        <v>0.01378220649297864</v>
+        <v>0.005153838771674078</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H32">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I32">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J32">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.793066</v>
+        <v>16.414246</v>
       </c>
       <c r="N32">
-        <v>9.586131999999999</v>
+        <v>32.828492</v>
       </c>
       <c r="O32">
-        <v>0.1530897350290489</v>
+        <v>0.2238644939003909</v>
       </c>
       <c r="P32">
-        <v>0.1123398347349798</v>
+        <v>0.1639757704305688</v>
       </c>
       <c r="Q32">
-        <v>22.036561897072</v>
+        <v>56.56578971043999</v>
       </c>
       <c r="R32">
-        <v>132.219371382432</v>
+        <v>339.3947382626399</v>
       </c>
       <c r="S32">
-        <v>0.0676227408168079</v>
+        <v>0.0932292775302868</v>
       </c>
       <c r="T32">
-        <v>0.05155488757620827</v>
+        <v>0.07018583393440521</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H33">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I33">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J33">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>25.566327</v>
       </c>
       <c r="O33">
-        <v>0.2721947514802995</v>
+        <v>0.1162281604801687</v>
       </c>
       <c r="P33">
-        <v>0.2996116629690111</v>
+        <v>0.1277018197151685</v>
       </c>
       <c r="Q33">
-        <v>39.181180161528</v>
+        <v>29.36838070926</v>
       </c>
       <c r="R33">
-        <v>352.630621453752</v>
+        <v>264.31542638334</v>
       </c>
       <c r="S33">
-        <v>0.120233764383713</v>
+        <v>0.04840368939909607</v>
       </c>
       <c r="T33">
-        <v>0.1374974926510065</v>
+        <v>0.05465965299699726</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H34">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I34">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J34">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.389131666666667</v>
+        <v>8.334395000000001</v>
       </c>
       <c r="N34">
-        <v>10.167395</v>
+        <v>25.003185</v>
       </c>
       <c r="O34">
-        <v>0.108248304702785</v>
+        <v>0.1136680368163697</v>
       </c>
       <c r="P34">
-        <v>0.1191516530322408</v>
+        <v>0.1248889691184426</v>
       </c>
       <c r="Q34">
-        <v>15.58184463761333</v>
+        <v>28.7214919853</v>
       </c>
       <c r="R34">
-        <v>140.23660173852</v>
+        <v>258.4934278677</v>
       </c>
       <c r="S34">
-        <v>0.04781540089142027</v>
+        <v>0.04733751550342519</v>
       </c>
       <c r="T34">
-        <v>0.05468096059681863</v>
+        <v>0.05345568082265893</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H35">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I35">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J35">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.801984</v>
+        <v>3.349162</v>
       </c>
       <c r="N35">
-        <v>7.603968</v>
+        <v>6.698324</v>
       </c>
       <c r="O35">
-        <v>0.1214347399231898</v>
+        <v>0.04567730105424404</v>
       </c>
       <c r="P35">
-        <v>0.08911086436636541</v>
+        <v>0.03345760866790863</v>
       </c>
       <c r="Q35">
-        <v>17.479971222528</v>
+        <v>11.54168113468</v>
       </c>
       <c r="R35">
-        <v>104.879827335168</v>
+        <v>69.25008680807998</v>
       </c>
       <c r="S35">
-        <v>0.05364010815241237</v>
+        <v>0.01902249750563568</v>
       </c>
       <c r="T35">
-        <v>0.04089467111167312</v>
+        <v>0.01432071433262426</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H36">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I36">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J36">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.237454333333335</v>
+        <v>34.05638833333334</v>
       </c>
       <c r="N36">
-        <v>21.712363</v>
+        <v>102.169165</v>
       </c>
       <c r="O36">
-        <v>0.2311630939725934</v>
+        <v>0.4644755621620905</v>
       </c>
       <c r="P36">
-        <v>0.2544470774161978</v>
+        <v>0.5103270520352536</v>
       </c>
       <c r="Q36">
-        <v>33.27486214329867</v>
+        <v>117.3630820910333</v>
       </c>
       <c r="R36">
-        <v>299.473759289688</v>
+        <v>1056.2677388193</v>
       </c>
       <c r="S36">
-        <v>0.1021092758907312</v>
+        <v>0.1934327339560742</v>
       </c>
       <c r="T36">
-        <v>0.116770605023885</v>
+        <v>0.2184330625941285</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H37">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I37">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J37">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.565121</v>
+        <v>2.645939</v>
       </c>
       <c r="N37">
-        <v>10.695363</v>
+        <v>7.937817</v>
       </c>
       <c r="O37">
-        <v>0.1138693748920833</v>
+        <v>0.03608644558673645</v>
       </c>
       <c r="P37">
-        <v>0.1253389074812049</v>
+        <v>0.03964878003265779</v>
       </c>
       <c r="Q37">
-        <v>16.390971788632</v>
+        <v>9.118276225459999</v>
       </c>
       <c r="R37">
-        <v>147.518746097688</v>
+        <v>82.06448602914</v>
       </c>
       <c r="S37">
-        <v>0.05029833792473522</v>
+        <v>0.01502834680065167</v>
       </c>
       <c r="T37">
-        <v>0.05752040938427904</v>
+        <v>0.01697069441275885</v>
       </c>
     </row>
   </sheetData>
